--- a/result_data/summary/times.xlsx
+++ b/result_data/summary/times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romolodevito/Desktop/reinforced_RTS/result_data/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A3ACD1-E26D-A04A-BC5C-E894793B0589}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6013DB80-047B-824E-9814-730765A8C09B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{60EDC1BA-55AA-A847-A94A-E2EE23F35A04}"/>
   </bookViews>
@@ -3688,8 +3688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B994E38-AEAA-2D4B-ADD1-AA41460D7131}">
   <dimension ref="A1:X522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N19" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="N12" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
